--- a/projects/test_building/input/Parameter_BuildingComponent_Lifetime.xlsx
+++ b/projects/test_building/input/Parameter_BuildingComponent_Lifetime.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902E8095-4413-49E6-94C9-1639EE5D67A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="13425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lifetime_tuned" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">lifetime_tuned_v2!$A$1:$E$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lifetime_tuned_v3!$A$1:$E$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -311,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -329,119 +330,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -670,6 +568,107 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -883,7 +882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -940,7 +939,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -966,7 +964,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -998,7 +996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1016,7 +1014,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1042,7 +1039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1072,7 +1069,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1130,9 +1127,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>lifetime_tuned_v3!$G$15:$G$22</c:f>
+              <c:f>lifetime_tuned_v3!$G$15:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5-10</c:v>
                 </c:pt>
@@ -1156,16 +1153,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51-55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>lifetime_tuned_v3!$E$15:$E$22</c:f>
+              <c:f>lifetime_tuned_v3!$E$15:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
@@ -1189,6 +1192,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,7 +1262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1312,7 +1321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1330,7 +1339,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1356,7 +1364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1386,7 +1394,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1579,7 +1587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -1638,7 +1646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -1656,7 +1664,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1682,7 +1689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1712,7 +1719,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1909,7 +1916,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1935,7 +1941,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1973,7 +1979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -2032,7 +2038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -2050,7 +2056,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2076,7 +2081,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2106,7 +2111,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2317,7 +2322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -2374,7 +2379,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2400,7 +2404,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2432,7 +2436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -2450,7 +2454,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2476,7 +2479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2506,7 +2509,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2687,7 +2690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -2746,7 +2749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -2764,7 +2767,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2790,7 +2792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2820,7 +2822,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3013,7 +3015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -3072,7 +3074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -3090,7 +3092,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3116,7 +3117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3146,7 +3147,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3343,7 +3344,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3369,7 +3369,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3407,7 +3407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="697232680"/>
@@ -3466,7 +3466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="787834048"/>
@@ -3484,7 +3484,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3510,7 +3509,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3540,7 +3539,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8130,74 +8129,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:E48" totalsRowShown="0">
-  <autoFilter ref="A1:E48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:E48" totalsRowShown="0">
+  <autoFilter ref="A1:E48" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" name="id_building_component"/>
-    <tableColumn id="3" name="unit"/>
-    <tableColumn id="4" name="min"/>
-    <tableColumn id="5" name="max"/>
-    <tableColumn id="6" name="pdf"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_building_component"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="min"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="max"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table68" displayName="Table68" ref="A1:E44" totalsRowShown="0">
-  <autoFilter ref="A1:E44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table68" displayName="Table68" ref="A1:E44" totalsRowShown="0">
+  <autoFilter ref="A1:E44" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" name="id_building_component" dataDxfId="4"/>
-    <tableColumn id="3" name="unit" dataDxfId="3"/>
-    <tableColumn id="4" name="min" dataDxfId="2"/>
-    <tableColumn id="5" name="max" dataDxfId="1"/>
-    <tableColumn id="6" name="pdf" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="id_building_component" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="unit" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="min" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="max" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="pdf" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E36" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:E36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:E36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:E36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" name="id_building_component"/>
-    <tableColumn id="3" name="unit"/>
-    <tableColumn id="4" name="min"/>
-    <tableColumn id="5" name="max"/>
-    <tableColumn id="6" name="pdf"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="id_building_component"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="unit"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="min"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="max"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0">
-  <autoFilter ref="A1:H50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0">
+  <autoFilter ref="A1:H50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="7" name="id_building_component"/>
-    <tableColumn id="5" name="unit"/>
-    <tableColumn id="6" name="min"/>
-    <tableColumn id="2" name="max"/>
-    <tableColumn id="3" name="pdf_literature"/>
-    <tableColumn id="8" name="pdf"/>
-    <tableColumn id="4" name="sum_pdf_literature"/>
-    <tableColumn id="9" name="sum_pdf"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="id_building_component"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="unit"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="min"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="max"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="pdf_literature"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="pdf"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="sum_pdf_literature"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="sum_pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="id_scenario"/>
-    <tableColumn id="2" name="id_building_component" dataDxfId="7"/>
-    <tableColumn id="3" name="unit"/>
-    <tableColumn id="4" name="min" dataDxfId="6"/>
-    <tableColumn id="5" name="max" dataDxfId="5"/>
-    <tableColumn id="6" name="pdf"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="id_scenario"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="id_building_component" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="unit"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="min" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="max" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="pdf"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8465,11 +8464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8498,67 +8497,67 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
         <v>26</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="3">
         <v>30</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
         <v>31</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="4">
         <v>35</v>
       </c>
-      <c r="E3" s="22">
-        <v>0.04</v>
+      <c r="E3" s="20">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>36</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="3">
         <v>40</v>
       </c>
-      <c r="E4" s="19">
-        <v>2.5000000000000001E-2</v>
+      <c r="E4" s="18">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
         <v>41</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="4">
         <v>45</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>0.02</v>
       </c>
     </row>
@@ -8566,33 +8565,33 @@
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
         <v>46</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="3">
         <v>50</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
         <v>51</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="4">
         <v>55</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>0.02</v>
       </c>
     </row>
@@ -8600,33 +8599,33 @@
       <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
         <v>56</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="3">
         <v>60</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
         <v>61</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="4">
         <v>65</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>0.01</v>
       </c>
     </row>
@@ -8634,33 +8633,33 @@
       <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
         <v>66</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="3">
         <v>70</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>1</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
         <v>71</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="4">
         <v>75</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>0.01</v>
       </c>
     </row>
@@ -8668,67 +8667,67 @@
       <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
         <v>76</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="3">
         <v>80</v>
       </c>
-      <c r="E12" s="19">
-        <v>0.01</v>
+      <c r="E12" s="18">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
         <v>81</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="4">
         <v>85</v>
       </c>
-      <c r="E13" s="22">
-        <v>0.01</v>
+      <c r="E13" s="20">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>1</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
         <v>86</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="3">
         <v>90</v>
       </c>
-      <c r="E14" s="19">
-        <v>0.01</v>
+      <c r="E14" s="18">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G15" s="15"/>
@@ -8737,34 +8736,34 @@
       <c r="A16" s="17">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="3">
         <v>15</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>0.01</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>2</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
         <v>16</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="4">
         <v>20</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>0.02</v>
       </c>
       <c r="G17" s="15"/>
@@ -8773,34 +8772,34 @@
       <c r="A18" s="17">
         <v>2</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
         <v>21</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="3">
         <v>25</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>0.02</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>2</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="21">
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
         <v>26</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="4">
         <v>30</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>0.03</v>
       </c>
       <c r="G19" s="15"/>
@@ -8809,34 +8808,34 @@
       <c r="A20" s="17">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
         <v>31</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="3">
         <v>35</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>0.04</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>2</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="21">
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
         <v>36</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="4">
         <v>40</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="20">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="G21" s="15"/>
@@ -8845,35 +8844,35 @@
       <c r="A22" s="17">
         <v>2</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
         <v>41</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="3">
         <v>45</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>0.02</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
         <v>46</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="4">
         <v>50</v>
       </c>
-      <c r="E23" s="22">
-        <v>0.01</v>
+      <c r="E23" s="20">
+        <v>0.06</v>
       </c>
       <c r="G23" s="15"/>
     </row>
@@ -8881,34 +8880,34 @@
       <c r="A24" s="17">
         <v>2</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>51</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="3">
         <v>55</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>2</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
         <v>56</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="4">
         <v>60</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="20">
         <v>0</v>
       </c>
       <c r="G25" s="15"/>
@@ -8917,34 +8916,34 @@
       <c r="A26" s="17">
         <v>2</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
         <v>61</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="3">
         <v>65</v>
       </c>
-      <c r="E26" s="19">
-        <v>0.05</v>
+      <c r="E26" s="18">
+        <v>0</v>
       </c>
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>3</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="A27" s="19">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
         <v>15</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="4">
         <v>20</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="20">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G27" s="15"/>
@@ -8954,35 +8953,35 @@
       <c r="A28" s="17">
         <v>3</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
         <v>21</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="3">
         <v>30</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>0.03</v>
       </c>
       <c r="G28" s="15"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>3</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="21">
+      <c r="A29" s="19">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4">
         <v>31</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="4">
         <v>40</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="20">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="G29" s="15"/>
@@ -8992,35 +8991,35 @@
       <c r="A30" s="17">
         <v>3</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
         <v>41</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="3">
         <v>50</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>0.01</v>
       </c>
       <c r="G30" s="15"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>3</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="A31" s="19">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
         <v>51</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="4">
         <v>60</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="20">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G31" s="15"/>
@@ -9030,35 +9029,35 @@
       <c r="A32" s="17">
         <v>3</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="18">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
         <v>61</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="3">
         <v>70</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G32" s="15"/>
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>3</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="A33" s="19">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
         <v>71</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="4">
         <v>80</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="20">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G33" s="15"/>
@@ -9068,35 +9067,35 @@
       <c r="A34" s="17">
         <v>3</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="18">
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
         <v>81</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="3">
         <v>90</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G34" s="15"/>
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>3</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="A35" s="19">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4">
         <v>91</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="4">
         <v>100</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="20">
         <v>0</v>
       </c>
       <c r="G35" s="15"/>
@@ -9106,34 +9105,34 @@
       <c r="A36" s="17">
         <v>3</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
         <v>101</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="3">
         <v>110</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="19">
         <v>4</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="21">
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4">
         <v>46</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="4">
         <v>50</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -9141,67 +9140,67 @@
       <c r="A38" s="17">
         <v>4</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="18">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
         <v>51</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="3">
         <v>55</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>0.02</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="19">
         <v>4</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="21">
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
         <v>56</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="4">
         <v>60</v>
       </c>
-      <c r="E39" s="22">
-        <v>2.5000000000000001E-2</v>
+      <c r="E39" s="20">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>4</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="18">
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
         <v>61</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="3">
         <v>65</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>0.02</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="19">
         <v>4</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="21">
+      <c r="B41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4">
         <v>66</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="4">
         <v>70</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -9209,34 +9208,34 @@
       <c r="A42" s="17">
         <v>4</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="18">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
         <v>71</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="3">
         <v>75</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>0.02</v>
       </c>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>4</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="21">
+      <c r="B43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4">
         <v>76</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="4">
         <v>80</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="20">
         <v>0.01</v>
       </c>
       <c r="G43" s="15"/>
@@ -9245,34 +9244,34 @@
       <c r="A44" s="17">
         <v>4</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="18">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
         <v>81</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="3">
         <v>85</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="18">
         <v>0.01</v>
       </c>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="19">
         <v>4</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="21">
+      <c r="B45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4">
         <v>86</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="4">
         <v>90</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="20">
         <v>0.02</v>
       </c>
     </row>
@@ -9280,65 +9279,65 @@
       <c r="A46" s="17">
         <v>4</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="18">
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3">
         <v>91</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="3">
         <v>95</v>
       </c>
-      <c r="E46" s="19">
-        <v>0.03</v>
+      <c r="E46" s="18">
+        <v>0.02</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="19">
         <v>4</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="21">
+      <c r="B47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4">
         <v>96</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="4">
         <v>100</v>
       </c>
-      <c r="E47" s="22">
-        <v>0.01</v>
+      <c r="E47" s="20">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>4</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="18">
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
         <v>101</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="3">
         <v>105</v>
       </c>
-      <c r="E48" s="19">
-        <v>0.01</v>
+      <c r="E48" s="18">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E44"/>
+  <autoFilter ref="A1:E44" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E48"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9883,7 +9882,7 @@
         <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -9899,16 +9898,16 @@
         <v>50</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="I23" s="23"/>
+        <v>2.88</v>
+      </c>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -9933,7 +9932,7 @@
         <f t="shared" si="0"/>
         <v>1.3250000000000002</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -9958,7 +9957,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -9974,18 +9973,18 @@
         <v>65</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>3.1500000000000004</v>
-      </c>
-      <c r="I26" s="23">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
         <f>SUM(H15:H26)/SUM(E15:E26)</f>
-        <v>39.195000000000007</v>
+        <v>36.195000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -10011,7 +10010,7 @@
         <v>33</v>
       </c>
       <c r="H27">
-        <f>AVERAGE(C27:D27)*E27</f>
+        <f t="shared" ref="H27:H48" si="1">AVERAGE(C27:D27)*E27</f>
         <v>0.13125000000000001</v>
       </c>
       <c r="I27" s="16"/>
@@ -10037,7 +10036,7 @@
         <v>34</v>
       </c>
       <c r="H28">
-        <f>AVERAGE(C28:D28)*E28</f>
+        <f t="shared" si="1"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="I28" s="16"/>
@@ -10063,7 +10062,7 @@
         <v>35</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(C29:D29)*E29</f>
+        <f t="shared" si="1"/>
         <v>1.33125</v>
       </c>
       <c r="I29" s="16"/>
@@ -10089,7 +10088,7 @@
         <v>36</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(C30:D30)*E30</f>
+        <f t="shared" si="1"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="I30" s="16"/>
@@ -10115,7 +10114,7 @@
         <v>37</v>
       </c>
       <c r="H31">
-        <f>AVERAGE(C31:D31)*E31</f>
+        <f t="shared" si="1"/>
         <v>0.41625000000000001</v>
       </c>
       <c r="I31" s="16"/>
@@ -10141,7 +10140,7 @@
         <v>38</v>
       </c>
       <c r="H32">
-        <f>AVERAGE(C32:D32)*E32</f>
+        <f t="shared" si="1"/>
         <v>0.16375000000000001</v>
       </c>
       <c r="I32" s="16"/>
@@ -10167,7 +10166,7 @@
         <v>39</v>
       </c>
       <c r="H33">
-        <f>AVERAGE(C33:D33)*E33</f>
+        <f t="shared" si="1"/>
         <v>0.18875</v>
       </c>
       <c r="I33" s="16"/>
@@ -10193,7 +10192,7 @@
         <v>40</v>
       </c>
       <c r="H34">
-        <f>AVERAGE(C34:D34)*E34</f>
+        <f t="shared" si="1"/>
         <v>0.42749999999999999</v>
       </c>
       <c r="I34" s="16"/>
@@ -10219,7 +10218,7 @@
         <v>41</v>
       </c>
       <c r="H35">
-        <f>AVERAGE(C35:D35)*E35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="16"/>
@@ -10245,7 +10244,7 @@
         <v>42</v>
       </c>
       <c r="H36">
-        <f>AVERAGE(C36:D36)*E36</f>
+        <f t="shared" si="1"/>
         <v>0.26374999999999998</v>
       </c>
       <c r="I36" s="16">
@@ -10277,7 +10276,7 @@
         <v>20</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(C37:D37)*E37</f>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="I37" s="16"/>
@@ -10302,7 +10301,7 @@
         <v>21</v>
       </c>
       <c r="H38">
-        <f>AVERAGE(C38:D38)*E38</f>
+        <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
       <c r="I38" s="16"/>
@@ -10327,7 +10326,7 @@
         <v>22</v>
       </c>
       <c r="H39">
-        <f>AVERAGE(C39:D39)*E39</f>
+        <f t="shared" si="1"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="I39" s="16"/>
@@ -10352,7 +10351,7 @@
         <v>23</v>
       </c>
       <c r="H40">
-        <f>AVERAGE(C40:D40)*E40</f>
+        <f t="shared" si="1"/>
         <v>1.26</v>
       </c>
       <c r="I40" s="16"/>
@@ -10377,7 +10376,7 @@
         <v>24</v>
       </c>
       <c r="H41">
-        <f>AVERAGE(C41:D41)*E41</f>
+        <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
       <c r="I41" s="16"/>
@@ -10402,7 +10401,7 @@
         <v>25</v>
       </c>
       <c r="H42">
-        <f>AVERAGE(C42:D42)*E42</f>
+        <f t="shared" si="1"/>
         <v>1.46</v>
       </c>
       <c r="I42" s="16"/>
@@ -10427,7 +10426,7 @@
         <v>26</v>
       </c>
       <c r="H43">
-        <f>AVERAGE(C43:D43)*E43</f>
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
       <c r="I43" s="16"/>
@@ -10452,7 +10451,7 @@
         <v>27</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(C44:D44)*E44</f>
+        <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="I44" s="16"/>
@@ -10477,7 +10476,7 @@
         <v>28</v>
       </c>
       <c r="H45">
-        <f>AVERAGE(C45:D45)*E45</f>
+        <f t="shared" si="1"/>
         <v>1.76</v>
       </c>
       <c r="I45" s="16"/>
@@ -10502,7 +10501,7 @@
         <v>43</v>
       </c>
       <c r="H46">
-        <f>AVERAGE(C46:D46)*E46</f>
+        <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
       <c r="I46" s="16"/>
@@ -10527,7 +10526,7 @@
         <v>44</v>
       </c>
       <c r="H47">
-        <f>AVERAGE(C47:D47)*E47</f>
+        <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
       <c r="I47" s="16"/>
@@ -10552,7 +10551,7 @@
         <v>45</v>
       </c>
       <c r="H48">
-        <f>AVERAGE(C48:D48)*E48</f>
+        <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
       <c r="I48" s="16">
@@ -10570,7 +10569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -11119,7 +11118,7 @@
         <f t="shared" si="0"/>
         <v>0.1075</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="21">
         <f>SUM(H15:H22)/SUM(E15:E22)</f>
         <v>24.708333333333332</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>33</v>
       </c>
       <c r="H23">
-        <f>AVERAGE(C23:D23)*E23</f>
+        <f t="shared" ref="H23:H44" si="1">AVERAGE(C23:D23)*E23</f>
         <v>0.13125000000000001</v>
       </c>
       <c r="I23" s="16"/>
@@ -11172,7 +11171,7 @@
         <v>34</v>
       </c>
       <c r="H24">
-        <f>AVERAGE(C24:D24)*E24</f>
+        <f t="shared" si="1"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="I24" s="16"/>
@@ -11197,7 +11196,7 @@
         <v>35</v>
       </c>
       <c r="H25">
-        <f>AVERAGE(C25:D25)*E25</f>
+        <f t="shared" si="1"/>
         <v>1.33125</v>
       </c>
       <c r="I25" s="16"/>
@@ -11222,7 +11221,7 @@
         <v>36</v>
       </c>
       <c r="H26">
-        <f>AVERAGE(C26:D26)*E26</f>
+        <f t="shared" si="1"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="I26" s="16"/>
@@ -11247,7 +11246,7 @@
         <v>37</v>
       </c>
       <c r="H27">
-        <f>AVERAGE(C27:D27)*E27</f>
+        <f t="shared" si="1"/>
         <v>0.41625000000000001</v>
       </c>
       <c r="I27" s="16"/>
@@ -11273,7 +11272,7 @@
         <v>38</v>
       </c>
       <c r="H28">
-        <f>AVERAGE(C28:D28)*E28</f>
+        <f t="shared" si="1"/>
         <v>0.16375000000000001</v>
       </c>
       <c r="I28" s="16"/>
@@ -11299,7 +11298,7 @@
         <v>39</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(C29:D29)*E29</f>
+        <f t="shared" si="1"/>
         <v>0.18875</v>
       </c>
       <c r="I29" s="16"/>
@@ -11325,7 +11324,7 @@
         <v>40</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(C30:D30)*E30</f>
+        <f t="shared" si="1"/>
         <v>0.42749999999999999</v>
       </c>
       <c r="I30" s="16"/>
@@ -11351,7 +11350,7 @@
         <v>41</v>
       </c>
       <c r="H31">
-        <f>AVERAGE(C31:D31)*E31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="16"/>
@@ -11377,7 +11376,7 @@
         <v>42</v>
       </c>
       <c r="H32">
-        <f>AVERAGE(C32:D32)*E32</f>
+        <f t="shared" si="1"/>
         <v>0.26374999999999998</v>
       </c>
       <c r="I32" s="16">
@@ -11409,7 +11408,7 @@
         <v>20</v>
       </c>
       <c r="H33">
-        <f>AVERAGE(C33:D33)*E33</f>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="I33" s="16"/>
@@ -11435,7 +11434,7 @@
         <v>21</v>
       </c>
       <c r="H34">
-        <f>AVERAGE(C34:D34)*E34</f>
+        <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
       <c r="I34" s="16"/>
@@ -11461,7 +11460,7 @@
         <v>22</v>
       </c>
       <c r="H35">
-        <f>AVERAGE(C35:D35)*E35</f>
+        <f t="shared" si="1"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="I35" s="16"/>
@@ -11487,7 +11486,7 @@
         <v>23</v>
       </c>
       <c r="H36">
-        <f>AVERAGE(C36:D36)*E36</f>
+        <f t="shared" si="1"/>
         <v>1.26</v>
       </c>
       <c r="I36" s="16"/>
@@ -11513,7 +11512,7 @@
         <v>24</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(C37:D37)*E37</f>
+        <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
       <c r="I37" s="16"/>
@@ -11538,7 +11537,7 @@
         <v>25</v>
       </c>
       <c r="H38">
-        <f>AVERAGE(C38:D38)*E38</f>
+        <f t="shared" si="1"/>
         <v>1.46</v>
       </c>
       <c r="I38" s="16"/>
@@ -11563,7 +11562,7 @@
         <v>26</v>
       </c>
       <c r="H39">
-        <f>AVERAGE(C39:D39)*E39</f>
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
       <c r="I39" s="16"/>
@@ -11588,7 +11587,7 @@
         <v>27</v>
       </c>
       <c r="H40">
-        <f>AVERAGE(C40:D40)*E40</f>
+        <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="I40" s="16"/>
@@ -11613,7 +11612,7 @@
         <v>28</v>
       </c>
       <c r="H41">
-        <f>AVERAGE(C41:D41)*E41</f>
+        <f t="shared" si="1"/>
         <v>1.76</v>
       </c>
       <c r="I41" s="16"/>
@@ -11638,7 +11637,7 @@
         <v>43</v>
       </c>
       <c r="H42">
-        <f>AVERAGE(C42:D42)*E42</f>
+        <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
       <c r="I42" s="16"/>
@@ -11663,7 +11662,7 @@
         <v>44</v>
       </c>
       <c r="H43">
-        <f>AVERAGE(C43:D43)*E43</f>
+        <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
       <c r="I43" s="16"/>
@@ -11688,7 +11687,7 @@
         <v>45</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(C44:D44)*E44</f>
+        <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
       <c r="I44" s="16">
@@ -11706,7 +11705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12341,11 +12340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="E38" sqref="E38:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13790,11 +13789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/test_building/input/Parameter_BuildingComponent_Lifetime.xlsx
+++ b/projects/test_building/input/Parameter_BuildingComponent_Lifetime.xlsx
@@ -12,10 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="lifetime_tuned" sheetId="1" r:id="rId1"/>
+    <sheet name="lifetime_tuned_v3" sheetId="2" r:id="rId2"/>
+    <sheet name="lifetime_tuned_v2" sheetId="3" r:id="rId3"/>
+    <sheet name="shortened_lifetime" sheetId="4" r:id="rId4"/>
+    <sheet name="lifetime_empirical" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lifetime_tuned!$A$1:$E$44</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="50">
   <si>
     <t>id_building_component</t>
   </si>
@@ -46,13 +51,146 @@
   <si>
     <t>year</t>
   </si>
+  <si>
+    <t>exterior wall</t>
+  </si>
+  <si>
+    <t>26-30</t>
+  </si>
+  <si>
+    <t>31-35</t>
+  </si>
+  <si>
+    <t>36-40</t>
+  </si>
+  <si>
+    <t>41-45</t>
+  </si>
+  <si>
+    <t>46-50</t>
+  </si>
+  <si>
+    <t>51-55</t>
+  </si>
+  <si>
+    <t>56-60</t>
+  </si>
+  <si>
+    <t>61-65</t>
+  </si>
+  <si>
+    <t>66-70</t>
+  </si>
+  <si>
+    <t>71-75</t>
+  </si>
+  <si>
+    <t>76-80</t>
+  </si>
+  <si>
+    <t>81-85</t>
+  </si>
+  <si>
+    <t>86-90</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>11-15</t>
+  </si>
+  <si>
+    <t>16-20</t>
+  </si>
+  <si>
+    <t>21-25</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>31-40</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>71-80</t>
+  </si>
+  <si>
+    <t>81-90</t>
+  </si>
+  <si>
+    <t>91-100</t>
+  </si>
+  <si>
+    <t>101-110</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>91-95</t>
+  </si>
+  <si>
+    <t>96-100</t>
+  </si>
+  <si>
+    <t>101-105</t>
+  </si>
+  <si>
+    <t>pdf_literature</t>
+  </si>
+  <si>
+    <t>sum_pdf_literature</t>
+  </si>
+  <si>
+    <t>sum_pdf</t>
+  </si>
+  <si>
+    <t>lifetime*pdf_norm</t>
+  </si>
+  <si>
+    <t>avg_lifetime</t>
+  </si>
+  <si>
+    <t>new_lifetime*pdf_norm</t>
+  </si>
+  <si>
+    <t>new_avg_lifetime</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>rate scaling</t>
+  </si>
+  <si>
+    <t>id_scenario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -136,11 +274,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF8FAADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8FAADC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -151,6 +307,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,6 +400,3018 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exterior wall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$G$2:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51-55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56-60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61-65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66-70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71-75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76-80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81-85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86-90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v3!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DF9-4B66-B139-BC4A4E003E17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="69633620"/>
+        <c:axId val="49753975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69633620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49753975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49753975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>PDF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69633620"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>window</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$G$15:$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21-25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51-55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v3!$E$15:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1910-42FF-80C9-2FB24BFA37A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="15170200"/>
+        <c:axId val="19596679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="15170200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19596679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19596679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15170200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roof</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$G$27:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41-50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51-60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61-70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81-90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91-100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101-110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v3!$E$27:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0A8-4976-9F25-407618B05EF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="70374194"/>
+        <c:axId val="52893264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70374194"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52893264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52893264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70374194"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v3!$G$37:$G$48</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56-60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61-65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66-70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71-75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81-85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86-90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91-95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96-100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101-105</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v3!$E$37:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FF5-488A-AF87-9818151D5E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="66386509"/>
+        <c:axId val="27020104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66386509"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Service life in years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27020104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27020104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66386509"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exterior wall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$G$2:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51-55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56-60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61-65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66-70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71-75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76-80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81-85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86-90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v2!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A88F-40B2-9242-1C68A12F641C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="71556004"/>
+        <c:axId val="1592813"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71556004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1592813"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1592813"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>PDF</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71556004"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>window</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$G$15:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21-25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41-45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v2!$E$15:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.75E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5271-4690-9560-A309B8423E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="5470512"/>
+        <c:axId val="71478027"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="5470512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71478027"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71478027"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5470512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roof</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$G$23:$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41-50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51-60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61-70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81-90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91-100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101-110</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v2!$E$23:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF30-4877-AC5A-139FF869BF7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="8678375"/>
+        <c:axId val="47833643"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="8678375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47833643"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47833643"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8678375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lifetime_tuned_v2!$G$33:$G$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51-55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56-60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61-65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66-70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71-75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81-85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86-90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91-95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96-100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101-105</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lifetime_tuned_v2!$E$33:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41A0-4BFB-9D94-9DD840473B8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="26280017"/>
+        <c:axId val="45874163"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="26280017"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Service life in years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45874163"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45874163"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26280017"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.01"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>568800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>527400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>574560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>527400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>568800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>527400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>574560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>527400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table6" displayName="Table6" ref="A1:E48" totalsRowShown="0">
+  <autoFilter ref="A1:E48"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id_building_component"/>
+    <tableColumn id="2" name="unit"/>
+    <tableColumn id="3" name="min"/>
+    <tableColumn id="4" name="max"/>
+    <tableColumn id="5" name="pdf"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table68" displayName="Table68" ref="A1:E44" totalsRowShown="0">
+  <autoFilter ref="A1:E44"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id_building_component"/>
+    <tableColumn id="2" name="unit"/>
+    <tableColumn id="3" name="min"/>
+    <tableColumn id="4" name="max"/>
+    <tableColumn id="5" name="pdf"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E36" totalsRowShown="0">
+  <autoFilter ref="A1:E36"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id_building_component"/>
+    <tableColumn id="2" name="unit"/>
+    <tableColumn id="3" name="min"/>
+    <tableColumn id="4" name="max"/>
+    <tableColumn id="5" name="pdf"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0">
+  <autoFilter ref="A1:H50"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="id_building_component"/>
+    <tableColumn id="2" name="unit"/>
+    <tableColumn id="3" name="min"/>
+    <tableColumn id="4" name="max"/>
+    <tableColumn id="5" name="pdf_literature"/>
+    <tableColumn id="6" name="pdf"/>
+    <tableColumn id="7" name="sum_pdf_literature"/>
+    <tableColumn id="8" name="sum_pdf"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_building_component"/>
+    <tableColumn id="3" name="unit"/>
+    <tableColumn id="4" name="min"/>
+    <tableColumn id="5" name="max"/>
+    <tableColumn id="6" name="pdf"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,12 +3683,12 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +3705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -544,7 +3722,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -561,7 +3739,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -578,7 +3756,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -595,7 +3773,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -612,7 +3790,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -629,7 +3807,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -646,7 +3824,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -663,7 +3841,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -680,7 +3858,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -697,7 +3875,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -714,7 +3892,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -731,7 +3909,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -748,7 +3926,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -766,7 +3944,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -784,7 +3962,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -802,7 +3980,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -820,7 +3998,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -838,7 +4016,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -856,7 +4034,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -874,7 +4052,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -892,7 +4070,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -910,7 +4088,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -928,7 +4106,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -946,7 +4124,7 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -964,7 +4142,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>3</v>
       </c>
@@ -983,7 +4161,7 @@
       <c r="G27" s="8"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -1002,7 +4180,7 @@
       <c r="G28" s="8"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>3</v>
       </c>
@@ -1021,7 +4199,7 @@
       <c r="G29" s="8"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -1040,7 +4218,7 @@
       <c r="G30" s="8"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>3</v>
       </c>
@@ -1059,7 +4237,7 @@
       <c r="G31" s="8"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -1078,7 +4256,7 @@
       <c r="G32" s="8"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -1097,7 +4275,7 @@
       <c r="G33" s="8"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -1116,7 +4294,7 @@
       <c r="G34" s="8"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>3</v>
       </c>
@@ -1135,7 +4313,7 @@
       <c r="G35" s="8"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -1153,7 +4331,7 @@
       </c>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>4</v>
       </c>
@@ -1170,7 +4348,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -1187,7 +4365,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>4</v>
       </c>
@@ -1204,7 +4382,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -1221,7 +4399,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>4</v>
       </c>
@@ -1238,7 +4416,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -1256,7 +4434,7 @@
       </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>4</v>
       </c>
@@ -1274,7 +4452,7 @@
       </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -1292,7 +4470,7 @@
       </c>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>4</v>
       </c>
@@ -1309,7 +4487,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -1326,7 +4504,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>4</v>
       </c>
@@ -1343,7 +4521,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -1365,4 +4543,4876 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N48"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H48" si="0">AVERAGE(C2:D2)*E2</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>0.04</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>0.02</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.83000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="11">
+        <f>SUM(H2:H14)/SUM(E2:E14)</f>
+        <v>50.926829268292664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>0.04</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>0.06</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <f>SUM(H15:H26)/SUM(E15:E26)</f>
+        <v>36.195000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>0.03</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1.33125</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>61</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.16375000000000001</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.18875</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>81</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>101</v>
+      </c>
+      <c r="D36">
+        <v>110</v>
+      </c>
+      <c r="E36">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.26374999999999998</v>
+      </c>
+      <c r="I36" s="11">
+        <f>SUM(H27:H36)/SUM(E27:E36)</f>
+        <v>39.452380952380949</v>
+      </c>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>55</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <v>0.02</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>66</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>71</v>
+      </c>
+      <c r="D42">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <v>0.02</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>0.01</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>81</v>
+      </c>
+      <c r="D44">
+        <v>85</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>86</v>
+      </c>
+      <c r="D45">
+        <v>90</v>
+      </c>
+      <c r="E45">
+        <v>0.02</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>91</v>
+      </c>
+      <c r="D46">
+        <v>95</v>
+      </c>
+      <c r="E46">
+        <v>0.03</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>2.79</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>0.01</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>101</v>
+      </c>
+      <c r="D48">
+        <v>105</v>
+      </c>
+      <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="I48" s="11">
+        <f>SUM(H37:H48)/SUM(E37:E48)</f>
+        <v>73.853658536585357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H44" si="0">AVERAGE(C2:D2)*E2</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6">
+        <v>55</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>61</v>
+      </c>
+      <c r="D9" s="6">
+        <v>65</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3">
+        <v>70</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>71</v>
+      </c>
+      <c r="D11" s="6">
+        <v>75</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3">
+        <v>80</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6">
+        <v>85</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.83000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3">
+        <v>90</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="11">
+        <f>SUM(H2:H14)/SUM(E2:E14)</f>
+        <v>50.926829268292664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6">
+        <v>30</v>
+      </c>
+      <c r="E19" s="15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3">
+        <v>35</v>
+      </c>
+      <c r="E20" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.155</v>
+      </c>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6">
+        <v>40</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2.75E-2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45</v>
+      </c>
+      <c r="E22" s="16">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.1075</v>
+      </c>
+      <c r="I22" s="12">
+        <f>SUM(H15:H22)/SUM(E15:E22)</f>
+        <v>24.708333333333332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20</v>
+      </c>
+      <c r="E23" s="15">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>30</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6">
+        <v>31</v>
+      </c>
+      <c r="D25" s="6">
+        <v>40</v>
+      </c>
+      <c r="E25" s="15">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1.33125</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3">
+        <v>50</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6">
+        <v>51</v>
+      </c>
+      <c r="D27" s="6">
+        <v>60</v>
+      </c>
+      <c r="E27" s="14">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3">
+        <v>70</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.16375000000000001</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6">
+        <v>71</v>
+      </c>
+      <c r="D29" s="6">
+        <v>80</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.18875</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>81</v>
+      </c>
+      <c r="D30" s="3">
+        <v>90</v>
+      </c>
+      <c r="E30" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>3</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>91</v>
+      </c>
+      <c r="D31" s="6">
+        <v>100</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>101</v>
+      </c>
+      <c r="D32" s="3">
+        <v>110</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.26374999999999998</v>
+      </c>
+      <c r="I32" s="11">
+        <f>SUM(H23:H32)/SUM(E23:E32)</f>
+        <v>39.452380952380949</v>
+      </c>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>46</v>
+      </c>
+      <c r="D33" s="6">
+        <v>50</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3">
+        <v>55</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6">
+        <v>56</v>
+      </c>
+      <c r="D35" s="6">
+        <v>60</v>
+      </c>
+      <c r="E35" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>61</v>
+      </c>
+      <c r="D36" s="3">
+        <v>65</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>66</v>
+      </c>
+      <c r="D37" s="6">
+        <v>70</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>71</v>
+      </c>
+      <c r="D38" s="3">
+        <v>75</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>4</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6">
+        <v>76</v>
+      </c>
+      <c r="D39" s="6">
+        <v>80</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
+        <v>81</v>
+      </c>
+      <c r="D40" s="3">
+        <v>85</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6">
+        <v>86</v>
+      </c>
+      <c r="D41" s="6">
+        <v>90</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3">
+        <v>95</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2.79</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6">
+        <v>96</v>
+      </c>
+      <c r="D43" s="6">
+        <v>100</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>101</v>
+      </c>
+      <c r="D44" s="3">
+        <v>105</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1.03</v>
+      </c>
+      <c r="I44" s="11">
+        <f>SUM(H33:H44)/SUM(E33:E44)</f>
+        <v>73.853658536585357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>2.2926829268292686</v>
+      </c>
+      <c r="K2" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>5.5</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>2.0487804878048781</v>
+      </c>
+      <c r="K3" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>16.5</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>0.06</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>9.6585365853658534</v>
+      </c>
+      <c r="K4" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>8.4</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>4.6341463414634152</v>
+      </c>
+      <c r="K5" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>4.1951219512195124</v>
+      </c>
+      <c r="K6" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>3.5121951219512195</v>
+      </c>
+      <c r="K7" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>5.1707317073170733</v>
+      </c>
+      <c r="K8" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>2.8292682926829267</v>
+      </c>
+      <c r="K9" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>3.0731707317073171</v>
+      </c>
+      <c r="K10" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>0</v>
+      </c>
+      <c r="K11" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>0</v>
+      </c>
+      <c r="K13" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>SUM(E2:E14)</f>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H14">
+        <f>SUM(F2:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$14</f>
+        <v>4.048780487804879</v>
+      </c>
+      <c r="J14">
+        <f>SUM(I2:I14)</f>
+        <v>41.463414634146339</v>
+      </c>
+      <c r="K14" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" t="e">
+        <f>SUM(K2:K14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>0.52</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>0.61176470588235299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>1.44</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>4.2352941176470589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>1.84</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>3.2470588235294118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>3.36</v>
+      </c>
+      <c r="K19">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>3.9529411764705884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20" s="10">
+        <v>35</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>5.28</v>
+      </c>
+      <c r="K20">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>6.2117647058823531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>3.42</v>
+      </c>
+      <c r="K21">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>3.5764705882352943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>3.44</v>
+      </c>
+      <c r="K22">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>4.0470588235294116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>46</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>1.92</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>2.2588235294117647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>55</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>61</v>
+      </c>
+      <c r="D26" s="10">
+        <v>65</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="K26">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>SUM(E15:E27)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H27">
+        <f>SUM(F15:F27)</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$27</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>SUM(I15:I27)</f>
+        <v>39.195000000000007</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$27</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>SUM(K15:K27)</f>
+        <v>28.229411764705883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>0.84677419354838701</v>
+      </c>
+      <c r="K28" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>0.03</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>4.9354838709677411</v>
+      </c>
+      <c r="K29" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I30">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>8.5887096774193541</v>
+      </c>
+      <c r="K30" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>2.9354838709677415</v>
+      </c>
+      <c r="K31" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I32">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>2.6854838709677415</v>
+      </c>
+      <c r="K32" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>1.0564516129032258</v>
+      </c>
+      <c r="K33" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>1.2177419354838708</v>
+      </c>
+      <c r="K34" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
+      </c>
+      <c r="E35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>2.7580645161290316</v>
+      </c>
+      <c r="K35" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>0</v>
+      </c>
+      <c r="K36" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>110</v>
+      </c>
+      <c r="E37">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G37">
+        <f>SUM(E25:E37)</f>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="H37">
+        <f>SUM(F25:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$37</f>
+        <v>1.7016129032258061</v>
+      </c>
+      <c r="J37">
+        <f>SUM(I28:I37)</f>
+        <v>26.725806451612897</v>
+      </c>
+      <c r="K37" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" t="e">
+        <f>SUM(K28:K37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>2.2926829268292686</v>
+      </c>
+      <c r="K38" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>2.0487804878048781</v>
+      </c>
+      <c r="K39" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>0.06</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>9.6585365853658534</v>
+      </c>
+      <c r="K40" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>4.6341463414634152</v>
+      </c>
+      <c r="K41" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>0.02</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>4.1951219512195124</v>
+      </c>
+      <c r="K42" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I43">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>3.5121951219512195</v>
+      </c>
+      <c r="K43" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>55</v>
+      </c>
+      <c r="E44">
+        <v>0.02</v>
+      </c>
+      <c r="I44">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>5.1707317073170733</v>
+      </c>
+      <c r="K44" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
+      <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="I45">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>2.8292682926829267</v>
+      </c>
+      <c r="K45" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>65</v>
+      </c>
+      <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>3.0731707317073171</v>
+      </c>
+      <c r="K46" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>66</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>0</v>
+      </c>
+      <c r="K47" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>71</v>
+      </c>
+      <c r="D48">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>0</v>
+      </c>
+      <c r="K48" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>76</v>
+      </c>
+      <c r="D49">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>0</v>
+      </c>
+      <c r="K49" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>81</v>
+      </c>
+      <c r="D50">
+        <v>85</v>
+      </c>
+      <c r="E50">
+        <v>0.01</v>
+      </c>
+      <c r="G50">
+        <f>SUM(E38:E50)</f>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H50">
+        <f>SUM(F38:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$G$50</f>
+        <v>4.048780487804879</v>
+      </c>
+      <c r="J50">
+        <f>SUM(I38:I50)</f>
+        <v>41.463414634146339</v>
+      </c>
+      <c r="K50" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$H$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L50" t="e">
+        <f>SUM(K38:K50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>41</v>
+      </c>
+      <c r="E4" s="6">
+        <v>50</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>51</v>
+      </c>
+      <c r="E5" s="6">
+        <v>60</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>16.649999999999999</v>
+      </c>
+      <c r="I5">
+        <f>SUM(H2:H5)</f>
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="H9">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUM(H6:H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="H10">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="H11">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="H12">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="H13">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>SUM(H10:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="H14">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6">
+        <v>40</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="H15">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>1</v>
+      </c>
+      <c r="B17" s="19">
+        <v>4</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="19">
+        <v>51</v>
+      </c>
+      <c r="E17" s="19">
+        <v>60</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="H17">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>SUM(H14:H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>